--- a/docs/data/count_objects/count_data.xlsx
+++ b/docs/data/count_objects/count_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\paper_pliman\data\count_objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA412F0-2614-49F2-9AE6-8F488D126A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F16FF7-47C6-4EB0-A80D-0613531C0BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EB7EBA45-9966-4447-B232-E3701B248FD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB7EBA45-9966-4447-B232-E3701B248FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="87">
   <si>
     <t>RESOLUTION</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>REAL</t>
-  </si>
-  <si>
-    <t>ACCURACY</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,9 +671,6 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -697,10 +691,7 @@
       <c r="F2">
         <v>97</v>
       </c>
-      <c r="G2" s="1">
-        <f>(F2/E2) * 100</f>
-        <v>98.979591836734699</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -721,10 +712,7 @@
       <c r="F3">
         <v>89</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">(F3/E3) * 100</f>
-        <v>100</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -745,10 +733,7 @@
       <c r="F4">
         <v>85</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>110.3896103896104</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -769,10 +754,7 @@
       <c r="F5">
         <v>73</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>108.95522388059702</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -793,10 +775,7 @@
       <c r="F6">
         <v>62</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>105.08474576271188</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -817,10 +796,7 @@
       <c r="F7">
         <v>53</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -841,10 +817,7 @@
       <c r="F8">
         <v>53</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>103.92156862745099</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -865,10 +838,7 @@
       <c r="F9">
         <v>45</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>97.826086956521735</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -889,10 +859,7 @@
       <c r="F10">
         <v>38</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>97.435897435897431</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -913,10 +880,7 @@
       <c r="F11">
         <v>33</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -937,10 +901,7 @@
       <c r="F12">
         <v>31</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>106.89655172413792</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -961,10 +922,7 @@
       <c r="F13">
         <v>22</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -985,10 +943,7 @@
       <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1009,10 +964,7 @@
       <c r="F15">
         <v>85</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1033,10 +985,7 @@
       <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>90.109890109890117</v>
-      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1057,10 +1006,7 @@
       <c r="F17">
         <v>64</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>81.012658227848107</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1081,10 +1027,7 @@
       <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>81.159420289855078</v>
-      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1105,10 +1048,7 @@
       <c r="F19">
         <v>57</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>93.442622950819683</v>
-      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1129,10 +1069,7 @@
       <c r="F20">
         <v>53</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>96.36363636363636</v>
-      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -1153,10 +1090,7 @@
       <c r="F21">
         <v>49</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>92.452830188679243</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1177,10 +1111,7 @@
       <c r="F22">
         <v>47</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>97.916666666666657</v>
-      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1201,10 +1132,7 @@
       <c r="F23">
         <v>38</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>92.682926829268297</v>
-      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -1225,10 +1153,7 @@
       <c r="F24">
         <v>31</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -1249,10 +1174,7 @@
       <c r="F25">
         <v>21</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>95.454545454545453</v>
-      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -1273,10 +1195,7 @@
       <c r="F26">
         <v>14</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1297,10 +1216,7 @@
       <c r="F27">
         <v>100</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1321,10 +1237,7 @@
       <c r="F28">
         <v>90</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1345,10 +1258,7 @@
       <c r="F29">
         <v>83</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1369,10 +1279,7 @@
       <c r="F30">
         <v>75</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1393,10 +1300,7 @@
       <c r="F31">
         <v>70</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -1417,10 +1321,7 @@
       <c r="F32">
         <v>60</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -1441,10 +1342,7 @@
       <c r="F33">
         <v>57</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -1465,10 +1363,7 @@
       <c r="F34">
         <v>48</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -1489,10 +1384,7 @@
       <c r="F35">
         <v>36</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -1513,10 +1405,7 @@
       <c r="F36">
         <v>29</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -1537,10 +1426,7 @@
       <c r="F37">
         <v>23</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1561,10 +1447,7 @@
       <c r="F38">
         <v>15</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -1585,10 +1468,7 @@
       <c r="F39">
         <v>7</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -1609,10 +1489,7 @@
       <c r="F40">
         <v>101</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -1633,10 +1510,7 @@
       <c r="F41">
         <v>93</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -1657,10 +1531,7 @@
       <c r="F42">
         <v>88</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>103.5294117647059</v>
-      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -1681,10 +1552,7 @@
       <c r="F43">
         <v>80</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -1705,10 +1573,7 @@
       <c r="F44">
         <v>71</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>101.42857142857142</v>
-      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -1729,10 +1594,7 @@
       <c r="F45">
         <v>66</v>
       </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>98.507462686567166</v>
-      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -1753,10 +1615,7 @@
       <c r="F46">
         <v>59</v>
       </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>101.72413793103448</v>
-      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -1777,10 +1636,7 @@
       <c r="F47">
         <v>46</v>
       </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -1801,10 +1657,7 @@
       <c r="F48">
         <v>39</v>
       </c>
-      <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
@@ -1825,10 +1678,7 @@
       <c r="F49">
         <v>34</v>
       </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>103.03030303030303</v>
-      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -1849,10 +1699,7 @@
       <c r="F50">
         <v>27</v>
       </c>
-      <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -1873,10 +1720,7 @@
       <c r="F51">
         <v>18</v>
       </c>
-      <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -1897,10 +1741,7 @@
       <c r="F52">
         <v>9</v>
       </c>
-      <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -1921,10 +1762,7 @@
       <c r="F53">
         <v>100</v>
       </c>
-      <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -1945,10 +1783,7 @@
       <c r="F54">
         <v>93</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -1969,10 +1804,7 @@
       <c r="F55">
         <v>87</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -1993,10 +1825,7 @@
       <c r="F56">
         <v>80</v>
       </c>
-      <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -2017,10 +1846,7 @@
       <c r="F57">
         <v>68</v>
       </c>
-      <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -2041,10 +1867,7 @@
       <c r="F58">
         <v>62</v>
       </c>
-      <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>101.63934426229508</v>
-      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -2065,10 +1888,7 @@
       <c r="F59">
         <v>54</v>
       </c>
-      <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>98.181818181818187</v>
-      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -2089,10 +1909,7 @@
       <c r="F60">
         <v>47</v>
       </c>
-      <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -2113,10 +1930,7 @@
       <c r="F61">
         <v>40</v>
       </c>
-      <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -2137,10 +1951,7 @@
       <c r="F62">
         <v>31</v>
       </c>
-      <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>96.875</v>
-      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -2161,10 +1972,7 @@
       <c r="F63">
         <v>23</v>
       </c>
-      <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>95.833333333333343</v>
-      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -2185,10 +1993,7 @@
       <c r="F64">
         <v>17</v>
       </c>
-      <c r="G64" s="1">
-        <f t="shared" si="0"/>
-        <v>94.444444444444443</v>
-      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -2209,10 +2014,7 @@
       <c r="F65">
         <v>12</v>
       </c>
-      <c r="G65" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -2233,10 +2035,7 @@
       <c r="F66">
         <v>99</v>
       </c>
-      <c r="G66" s="1">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -2257,10 +2056,7 @@
       <c r="F67">
         <v>91</v>
       </c>
-      <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="1">(F67/E67) * 100</f>
-        <v>97.849462365591393</v>
-      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -2281,10 +2077,7 @@
       <c r="F68">
         <v>86</v>
       </c>
-      <c r="G68" s="1">
-        <f t="shared" si="1"/>
-        <v>98.850574712643677</v>
-      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -2305,10 +2098,7 @@
       <c r="F69">
         <v>80</v>
       </c>
-      <c r="G69" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
@@ -2329,10 +2119,7 @@
       <c r="F70">
         <v>67</v>
       </c>
-      <c r="G70" s="1">
-        <f t="shared" si="1"/>
-        <v>98.529411764705884</v>
-      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -2353,10 +2140,7 @@
       <c r="F71">
         <v>61</v>
       </c>
-      <c r="G71" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -2377,10 +2161,7 @@
       <c r="F72">
         <v>55</v>
       </c>
-      <c r="G72" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -2401,10 +2182,7 @@
       <c r="F73">
         <v>47</v>
       </c>
-      <c r="G73" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -2425,10 +2203,7 @@
       <c r="F74">
         <v>40</v>
       </c>
-      <c r="G74" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -2449,10 +2224,7 @@
       <c r="F75">
         <v>32</v>
       </c>
-      <c r="G75" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -2473,10 +2245,7 @@
       <c r="F76">
         <v>24</v>
       </c>
-      <c r="G76" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -2497,10 +2266,7 @@
       <c r="F77">
         <v>18</v>
       </c>
-      <c r="G77" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -2521,10 +2287,7 @@
       <c r="F78">
         <v>12</v>
       </c>
-      <c r="G78" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -2545,10 +2308,7 @@
       <c r="F79">
         <v>91</v>
       </c>
-      <c r="G79" s="1">
-        <f t="shared" si="1"/>
-        <v>92.857142857142861</v>
-      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -2569,10 +2329,7 @@
       <c r="F80">
         <v>85</v>
       </c>
-      <c r="G80" s="1">
-        <f t="shared" si="1"/>
-        <v>95.50561797752809</v>
-      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -2593,10 +2350,7 @@
       <c r="F81">
         <v>75</v>
       </c>
-      <c r="G81" s="1">
-        <f t="shared" si="1"/>
-        <v>97.402597402597408</v>
-      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -2617,10 +2371,7 @@
       <c r="F82">
         <v>66</v>
       </c>
-      <c r="G82" s="1">
-        <f t="shared" si="1"/>
-        <v>98.507462686567166</v>
-      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -2641,10 +2392,7 @@
       <c r="F83">
         <v>59</v>
       </c>
-      <c r="G83" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -2665,10 +2413,7 @@
       <c r="F84">
         <v>52</v>
       </c>
-      <c r="G84" s="1">
-        <f t="shared" si="1"/>
-        <v>98.113207547169807</v>
-      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -2689,10 +2434,7 @@
       <c r="F85">
         <v>51</v>
       </c>
-      <c r="G85" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -2713,10 +2455,7 @@
       <c r="F86">
         <v>44</v>
       </c>
-      <c r="G86" s="1">
-        <f t="shared" si="1"/>
-        <v>95.652173913043484</v>
-      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -2737,10 +2476,7 @@
       <c r="F87">
         <v>39</v>
       </c>
-      <c r="G87" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -2761,10 +2497,7 @@
       <c r="F88">
         <v>32</v>
       </c>
-      <c r="G88" s="1">
-        <f t="shared" si="1"/>
-        <v>96.969696969696969</v>
-      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -2785,10 +2518,7 @@
       <c r="F89">
         <v>30</v>
       </c>
-      <c r="G89" s="1">
-        <f t="shared" si="1"/>
-        <v>103.44827586206897</v>
-      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -2809,10 +2539,7 @@
       <c r="F90">
         <v>21</v>
       </c>
-      <c r="G90" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -2833,10 +2560,7 @@
       <c r="F91">
         <v>12</v>
       </c>
-      <c r="G91" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
@@ -2857,10 +2581,7 @@
       <c r="F92">
         <v>84</v>
       </c>
-      <c r="G92" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -2881,10 +2602,7 @@
       <c r="F93">
         <v>81</v>
       </c>
-      <c r="G93" s="1">
-        <f t="shared" si="1"/>
-        <v>89.010989010989007</v>
-      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -2905,10 +2623,7 @@
       <c r="F94">
         <v>59</v>
       </c>
-      <c r="G94" s="1">
-        <f t="shared" si="1"/>
-        <v>74.683544303797461</v>
-      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -2929,10 +2644,7 @@
       <c r="F95">
         <v>59</v>
       </c>
-      <c r="G95" s="1">
-        <f t="shared" si="1"/>
-        <v>85.507246376811594</v>
-      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
@@ -2953,10 +2665,7 @@
       <c r="F96">
         <v>55</v>
       </c>
-      <c r="G96" s="1">
-        <f t="shared" si="1"/>
-        <v>90.163934426229503</v>
-      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
@@ -2977,10 +2686,7 @@
       <c r="F97">
         <v>53</v>
       </c>
-      <c r="G97" s="1">
-        <f t="shared" si="1"/>
-        <v>96.36363636363636</v>
-      </c>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -3001,10 +2707,7 @@
       <c r="F98">
         <v>49</v>
       </c>
-      <c r="G98" s="1">
-        <f t="shared" si="1"/>
-        <v>92.452830188679243</v>
-      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
@@ -3025,10 +2728,7 @@
       <c r="F99">
         <v>46</v>
       </c>
-      <c r="G99" s="1">
-        <f t="shared" si="1"/>
-        <v>95.833333333333343</v>
-      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -3049,10 +2749,7 @@
       <c r="F100">
         <v>37</v>
       </c>
-      <c r="G100" s="1">
-        <f t="shared" si="1"/>
-        <v>90.243902439024396</v>
-      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
@@ -3073,10 +2770,7 @@
       <c r="F101">
         <v>31</v>
       </c>
-      <c r="G101" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
@@ -3097,10 +2791,7 @@
       <c r="F102">
         <v>21</v>
       </c>
-      <c r="G102" s="1">
-        <f t="shared" si="1"/>
-        <v>95.454545454545453</v>
-      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
@@ -3121,10 +2812,7 @@
       <c r="F103">
         <v>14</v>
       </c>
-      <c r="G103" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
@@ -3145,10 +2833,7 @@
       <c r="F104">
         <v>100</v>
       </c>
-      <c r="G104" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
@@ -3169,10 +2854,7 @@
       <c r="F105">
         <v>90</v>
       </c>
-      <c r="G105" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -3193,10 +2875,7 @@
       <c r="F106">
         <v>83</v>
       </c>
-      <c r="G106" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -3217,10 +2896,7 @@
       <c r="F107">
         <v>75</v>
       </c>
-      <c r="G107" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -3241,10 +2917,7 @@
       <c r="F108">
         <v>70</v>
       </c>
-      <c r="G108" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
@@ -3265,10 +2938,7 @@
       <c r="F109">
         <v>60</v>
       </c>
-      <c r="G109" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
@@ -3289,10 +2959,7 @@
       <c r="F110">
         <v>57</v>
       </c>
-      <c r="G110" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
@@ -3313,10 +2980,7 @@
       <c r="F111">
         <v>48</v>
       </c>
-      <c r="G111" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
@@ -3337,10 +3001,7 @@
       <c r="F112">
         <v>36</v>
       </c>
-      <c r="G112" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
@@ -3361,10 +3022,7 @@
       <c r="F113">
         <v>29</v>
       </c>
-      <c r="G113" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
@@ -3385,10 +3043,7 @@
       <c r="F114">
         <v>23</v>
       </c>
-      <c r="G114" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
@@ -3409,10 +3064,7 @@
       <c r="F115">
         <v>15</v>
       </c>
-      <c r="G115" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
@@ -3433,10 +3085,7 @@
       <c r="F116">
         <v>7</v>
       </c>
-      <c r="G116" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
@@ -3457,10 +3106,7 @@
       <c r="F117">
         <v>100</v>
       </c>
-      <c r="G117" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
@@ -3481,10 +3127,7 @@
       <c r="F118">
         <v>93</v>
       </c>
-      <c r="G118" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
@@ -3505,10 +3148,7 @@
       <c r="F119">
         <v>85</v>
       </c>
-      <c r="G119" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
@@ -3529,10 +3169,7 @@
       <c r="F120">
         <v>80</v>
       </c>
-      <c r="G120" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -3553,10 +3190,7 @@
       <c r="F121">
         <v>70</v>
       </c>
-      <c r="G121" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
@@ -3577,10 +3211,7 @@
       <c r="F122">
         <v>66</v>
       </c>
-      <c r="G122" s="1">
-        <f t="shared" si="1"/>
-        <v>98.507462686567166</v>
-      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
@@ -3601,10 +3232,7 @@
       <c r="F123">
         <v>59</v>
       </c>
-      <c r="G123" s="1">
-        <f t="shared" si="1"/>
-        <v>101.72413793103448</v>
-      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
@@ -3625,10 +3253,7 @@
       <c r="F124">
         <v>46</v>
       </c>
-      <c r="G124" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
@@ -3649,10 +3274,7 @@
       <c r="F125">
         <v>39</v>
       </c>
-      <c r="G125" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
@@ -3673,10 +3295,7 @@
       <c r="F126">
         <v>33</v>
       </c>
-      <c r="G126" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
@@ -3697,10 +3316,7 @@
       <c r="F127">
         <v>26</v>
       </c>
-      <c r="G127" s="1">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
@@ -3721,10 +3337,7 @@
       <c r="F128">
         <v>18</v>
       </c>
-      <c r="G128" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
@@ -3745,10 +3358,7 @@
       <c r="F129">
         <v>9</v>
       </c>
-      <c r="G129" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
@@ -3769,10 +3379,7 @@
       <c r="F130">
         <v>100</v>
       </c>
-      <c r="G130" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
@@ -3793,10 +3400,7 @@
       <c r="F131">
         <v>93</v>
       </c>
-      <c r="G131" s="1">
-        <f t="shared" ref="G131:G155" si="2">(F131/E131) * 100</f>
-        <v>100</v>
-      </c>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
@@ -3817,10 +3421,7 @@
       <c r="F132">
         <v>86</v>
       </c>
-      <c r="G132" s="1">
-        <f t="shared" si="2"/>
-        <v>98.850574712643677</v>
-      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
@@ -3841,10 +3442,7 @@
       <c r="F133">
         <v>79</v>
       </c>
-      <c r="G133" s="1">
-        <f t="shared" si="2"/>
-        <v>98.75</v>
-      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
@@ -3865,10 +3463,7 @@
       <c r="F134">
         <v>68</v>
       </c>
-      <c r="G134" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
@@ -3889,10 +3484,7 @@
       <c r="F135">
         <v>61</v>
       </c>
-      <c r="G135" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
@@ -3913,10 +3505,7 @@
       <c r="F136">
         <v>54</v>
       </c>
-      <c r="G136" s="1">
-        <f t="shared" si="2"/>
-        <v>98.181818181818187</v>
-      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
@@ -3937,10 +3526,7 @@
       <c r="F137">
         <v>47</v>
       </c>
-      <c r="G137" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
@@ -3961,10 +3547,7 @@
       <c r="F138">
         <v>40</v>
       </c>
-      <c r="G138" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
@@ -3985,10 +3568,7 @@
       <c r="F139">
         <v>32</v>
       </c>
-      <c r="G139" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
@@ -4009,10 +3589,7 @@
       <c r="F140">
         <v>24</v>
       </c>
-      <c r="G140" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
@@ -4033,10 +3610,7 @@
       <c r="F141">
         <v>18</v>
       </c>
-      <c r="G141" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
@@ -4057,10 +3631,7 @@
       <c r="F142">
         <v>12</v>
       </c>
-      <c r="G142" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
@@ -4081,10 +3652,7 @@
       <c r="F143">
         <v>102</v>
       </c>
-      <c r="G143" s="1">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
+      <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
@@ -4105,10 +3673,7 @@
       <c r="F144">
         <v>91</v>
       </c>
-      <c r="G144" s="1">
-        <f t="shared" si="2"/>
-        <v>97.849462365591393</v>
-      </c>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
@@ -4129,10 +3694,7 @@
       <c r="F145">
         <v>87</v>
       </c>
-      <c r="G145" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
@@ -4153,10 +3715,7 @@
       <c r="F146">
         <v>80</v>
       </c>
-      <c r="G146" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
@@ -4177,10 +3736,7 @@
       <c r="F147">
         <v>69</v>
       </c>
-      <c r="G147" s="1">
-        <f t="shared" si="2"/>
-        <v>101.47058823529412</v>
-      </c>
+      <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
@@ -4201,10 +3757,7 @@
       <c r="F148">
         <v>61</v>
       </c>
-      <c r="G148" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
@@ -4225,10 +3778,7 @@
       <c r="F149">
         <v>57</v>
       </c>
-      <c r="G149" s="1">
-        <f t="shared" si="2"/>
-        <v>103.63636363636364</v>
-      </c>
+      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
@@ -4249,10 +3799,7 @@
       <c r="F150">
         <v>48</v>
       </c>
-      <c r="G150" s="1">
-        <f t="shared" si="2"/>
-        <v>102.12765957446808</v>
-      </c>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
@@ -4273,10 +3820,7 @@
       <c r="F151">
         <v>40</v>
       </c>
-      <c r="G151" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
@@ -4297,10 +3841,7 @@
       <c r="F152">
         <v>33</v>
       </c>
-      <c r="G152" s="1">
-        <f t="shared" si="2"/>
-        <v>103.125</v>
-      </c>
+      <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
@@ -4321,10 +3862,7 @@
       <c r="F153">
         <v>24</v>
       </c>
-      <c r="G153" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
@@ -4345,10 +3883,7 @@
       <c r="F154">
         <v>18</v>
       </c>
-      <c r="G154" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -4369,10 +3904,7 @@
       <c r="F155">
         <v>12</v>
       </c>
-      <c r="G155" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="G155" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F155">
